--- a/xlsx/公共财政_intext.xlsx
+++ b/xlsx/公共财政_intext.xlsx
@@ -29,7 +29,7 @@
     <t>公共政策</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_公共财政</t>
+    <t>政策_政策_货币政策_公共财政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%94%BF%E7%AD%96</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%9F%BA%E6%95%B8</t>
   </si>
   <si>
-    <t>貨幣基數</t>
+    <t>货币基数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91%E6%AF%94%E7%8E%87</t>
   </si>
   <si>
-    <t>存款準備金比率</t>
+    <t>存款准备金比率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91</t>
   </si>
   <si>
-    <t>存款準備金</t>
+    <t>存款准备金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91%E5%82%A8%E5%A4%87</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%88%A9%E5%BE%97</t>
   </si>
   <si>
-    <t>貿易利得</t>
+    <t>贸易利得</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>商務部</t>
+    <t>商务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E5%A3%81%E5%9E%92</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E7%AE%97</t>
   </si>
   <si>
-    <t>預算</t>
+    <t>预算</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8E%E6%94%B6</t>
@@ -335,13 +335,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%9F%E7%A8%85%E8%B2%A0%E6%93%94%E7%8E%87</t>
   </si>
   <si>
-    <t>租稅負擔率</t>
+    <t>租税负担率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E5%8A%A1</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E9%87%91%E8%9E%8D%E5%AD%A6</t>
@@ -449,19 +449,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>保險</t>
+    <t>保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%B2%A1%E6%94%BF</t>
